--- a/processes/data-analysis/lemonade_data_exploration.xlsx
+++ b/processes/data-analysis/lemonade_data_exploration.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zubquzaini/Documents/data_analysis/data-analysis-lemonade-sales/processes/data-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BDF6CB-D378-3F4B-8A00-1623D3C1F0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129FD99E-B693-ED45-81D8-96DCD0D815B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lemonade Original" sheetId="1" r:id="rId1"/>
     <sheet name="Lemonade Clean" sheetId="7" r:id="rId2"/>
     <sheet name="Lemonade Data Exploration" sheetId="9" r:id="rId3"/>
     <sheet name="Lemonade Descriptive Statistics" sheetId="11" r:id="rId4"/>
+    <sheet name="Lemonade Associative Analysis" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_Day">#N/A</definedName>
@@ -28,7 +29,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -120,6 +121,9 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>Spurious correlations</t>
   </si>
 </sst>
 </file>
@@ -270,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +452,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -631,7 +641,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -639,6 +649,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3827,7 +3839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE63B64-1AC1-7148-BDD7-B7EF30C681CE}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="135" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -4458,4 +4470,189 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3F53A4-456C-EF43-B022-3F02F11D02BD}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="221" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.99671433953351241</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.47734477085330207</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.4531156468834312</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.86039768267707717</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.82920180911580899</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.290834822190429</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-0.27053035854558855</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-0.31808336893802641</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-3.3574567075296491E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.9933118068888143E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.99930903775971747</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.99903613231020372</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.46661641888188637</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.8467852995205265</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-0.29257237534797398</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.46927551574100385</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.426955273482299</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.3394465005728633</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.60141227341794568</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.70225907347496253</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.45023894596842939</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/processes/data-analysis/lemonade_data_exploration.xlsx
+++ b/processes/data-analysis/lemonade_data_exploration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zubquzaini/Documents/data_analysis/data-analysis-lemonade-sales/processes/data-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129FD99E-B693-ED45-81D8-96DCD0D815B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F113E7C-9C49-8A4A-8BB4-8AB84F1691BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lemonade Original" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,11 @@
     <sheet name="Lemonade Data Exploration" sheetId="9" r:id="rId3"/>
     <sheet name="Lemonade Descriptive Statistics" sheetId="11" r:id="rId4"/>
     <sheet name="Lemonade Associative Analysis" sheetId="12" r:id="rId5"/>
+    <sheet name="Lemonade Comparative Analysis" sheetId="13" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_Day">#N/A</definedName>
+    <definedName name="Slicer_Day1">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +31,8 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -124,6 +127,30 @@
   </si>
   <si>
     <t>Spurious correlations</t>
+  </si>
+  <si>
+    <t>Assume Rozie sold average 200 lemonade last year, we wanted to know if the sales increases</t>
+  </si>
+  <si>
+    <t>u = 200</t>
+  </si>
+  <si>
+    <t>Alternative hypotheses</t>
+  </si>
+  <si>
+    <t>u &gt; 200</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>Null hypotheses</t>
+  </si>
+  <si>
+    <t>Failed to reject null hypotheses. There is no significant evidence Rozie is selling more this year</t>
+  </si>
+  <si>
+    <t>Z-Test</t>
   </si>
 </sst>
 </file>
@@ -461,7 +488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -596,6 +623,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -641,7 +677,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -651,6 +687,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -696,7 +739,19 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -805,11 +860,104 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14195</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>169955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>518681</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>170883</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Day 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03E1252-DF32-7F48-9126-06A71706E88F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Day 1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7979546" y="3578902"/>
+              <a:ext cx="1986153" cy="2462946"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can’t be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Day" xr10:uid="{6C218F10-C3BB-0F46-8E0F-D110F2C179FE}" sourceName="Day">
   <extLst>
     <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
       <x15:tableSlicerCache tableId="2" column="10"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Day1" xr10:uid="{4C1C50DC-2940-3F4A-8FB6-6605B2783C34}" sourceName="Day">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="10"/>
     </x:ext>
   </extLst>
 </slicerCacheDefinition>
@@ -821,12 +969,18 @@
 </slicers>
 </file>
 
+<file path=xl/slicers/slicer2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Day 1" xr10:uid="{5B3BF88E-CD1D-BD4C-A0AB-EF2066E089AA}" cache="Slicer_Day1" caption="Day" rowHeight="230716"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}" name="Table2" displayName="Table2" ref="A1:J32" totalsRowShown="0">
   <autoFilter ref="A1:J32" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{EFAB94E3-6BB0-2045-B546-207A6256F449}" name="Date" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{64AD10D0-DF2E-204F-9A2E-BCA8D49BEB87}" name="Day" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{EFAB94E3-6BB0-2045-B546-207A6256F449}" name="Date" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{64AD10D0-DF2E-204F-9A2E-BCA8D49BEB87}" name="Day" dataDxfId="6">
       <calculatedColumnFormula>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{C3FA5E41-4CE9-374B-B63B-F48953465538}" name="Location"/>
@@ -835,11 +989,36 @@
     <tableColumn id="5" xr3:uid="{F0738C15-3DD7-4940-B3C6-7AB81A462B8D}" name="Temperature"/>
     <tableColumn id="6" xr3:uid="{D5B90675-BC57-644B-BB89-4EA6810706E7}" name="Leaflets"/>
     <tableColumn id="7" xr3:uid="{588334A6-9D7E-654A-8B61-E2433474B77C}" name="Price"/>
-    <tableColumn id="8" xr3:uid="{24693B7B-5803-5A40-9344-FFB16F9F9CE6}" name="Sales" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{24693B7B-5803-5A40-9344-FFB16F9F9CE6}" name="Sales" dataDxfId="5">
       <calculatedColumnFormula>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B49BD8DE-506A-D042-8F38-41F6528509E3}" name="Revenue" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{B49BD8DE-506A-D042-8F38-41F6528509E3}" name="Revenue" dataDxfId="4">
       <calculatedColumnFormula>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DFFFCFD-D00E-4544-8B32-76C098071E1A}" name="Table22" displayName="Table22" ref="A1:J32" totalsRowShown="0">
+  <autoFilter ref="A1:J32" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{AA148E19-76CC-904F-987A-B77EA3803BD4}" name="Date" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{C9D26205-3AEB-CA4F-B617-90096AC3C3D5}" name="Day" dataDxfId="2">
+      <calculatedColumnFormula>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{72E84BE1-73CD-5046-96C7-2207888DEF4C}" name="Location"/>
+    <tableColumn id="3" xr3:uid="{07857408-0543-7344-BAFD-B728A9BB4A9A}" name="Lemon"/>
+    <tableColumn id="4" xr3:uid="{F3951801-C555-9D41-A281-E6A6080B6159}" name="Orange"/>
+    <tableColumn id="5" xr3:uid="{4C8E90E4-7A59-C74F-9D64-8273A21CF86D}" name="Temperature"/>
+    <tableColumn id="6" xr3:uid="{18A6359B-5AA4-104E-B2C7-2D8C9F04488A}" name="Leaflets"/>
+    <tableColumn id="7" xr3:uid="{A17B9336-8715-8E4B-98C2-0A68B8BF6AB8}" name="Price"/>
+    <tableColumn id="8" xr3:uid="{E25299B9-F2E2-B048-B7B0-19494BF8B6A1}" name="Sales" dataDxfId="1">
+      <calculatedColumnFormula>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{BE6801C4-823F-5342-B1D0-B88BCE743608}" name="Revenue" dataDxfId="0">
+      <calculatedColumnFormula>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4476,7 +4655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3F53A4-456C-EF43-B022-3F02F11D02BD}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="221" workbookViewId="0">
+    <sheetView zoomScale="221" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -4655,4 +4834,1186 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419A6AE1-D3CD-F744-B19D-DE10C517DF7C}">
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="12" max="12" width="19.5" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>97</v>
+      </c>
+      <c r="E2">
+        <v>67</v>
+      </c>
+      <c r="F2">
+        <v>70</v>
+      </c>
+      <c r="G2">
+        <v>90</v>
+      </c>
+      <c r="H2">
+        <v>0.25</v>
+      </c>
+      <c r="I2">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>164</v>
+      </c>
+      <c r="J2">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>42553</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>98</v>
+      </c>
+      <c r="E3">
+        <v>67</v>
+      </c>
+      <c r="F3">
+        <v>72</v>
+      </c>
+      <c r="G3">
+        <v>90</v>
+      </c>
+      <c r="H3">
+        <v>0.25</v>
+      </c>
+      <c r="I3">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>165</v>
+      </c>
+      <c r="J3">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>41.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>110</v>
+      </c>
+      <c r="E4">
+        <v>77</v>
+      </c>
+      <c r="F4">
+        <v>71</v>
+      </c>
+      <c r="G4">
+        <v>104</v>
+      </c>
+      <c r="H4">
+        <v>0.25</v>
+      </c>
+      <c r="I4">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>187</v>
+      </c>
+      <c r="J4">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>46.75</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>42555</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>134</v>
+      </c>
+      <c r="E5">
+        <v>99</v>
+      </c>
+      <c r="F5">
+        <v>76</v>
+      </c>
+      <c r="G5">
+        <v>98</v>
+      </c>
+      <c r="H5">
+        <v>0.25</v>
+      </c>
+      <c r="I5">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>233</v>
+      </c>
+      <c r="J5">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>58.25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>42556</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>159</v>
+      </c>
+      <c r="E6">
+        <v>118</v>
+      </c>
+      <c r="F6">
+        <v>78</v>
+      </c>
+      <c r="G6">
+        <v>135</v>
+      </c>
+      <c r="H6">
+        <v>0.25</v>
+      </c>
+      <c r="I6">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>277</v>
+      </c>
+      <c r="J6">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>69.25</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>42557</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>69</v>
+      </c>
+      <c r="F7">
+        <v>82</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
+      <c r="H7">
+        <v>0.25</v>
+      </c>
+      <c r="I7">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>172</v>
+      </c>
+      <c r="J7">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>43</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="7">
+        <f>_xlfn.Z.TEST(Table22[Sales],200)</f>
+        <v>0.63825155304809944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>42558</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>143</v>
+      </c>
+      <c r="E8">
+        <v>101</v>
+      </c>
+      <c r="F8">
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <v>135</v>
+      </c>
+      <c r="H8">
+        <v>0.25</v>
+      </c>
+      <c r="I8">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>244</v>
+      </c>
+      <c r="J8">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>42559</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>123</v>
+      </c>
+      <c r="E9">
+        <v>86</v>
+      </c>
+      <c r="F9">
+        <v>82</v>
+      </c>
+      <c r="G9">
+        <v>113</v>
+      </c>
+      <c r="H9">
+        <v>0.25</v>
+      </c>
+      <c r="I9">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>209</v>
+      </c>
+      <c r="J9">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>52.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>42560</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>134</v>
+      </c>
+      <c r="E10">
+        <v>95</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>126</v>
+      </c>
+      <c r="H10">
+        <v>0.25</v>
+      </c>
+      <c r="I10">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>229</v>
+      </c>
+      <c r="J10">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>57.25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>42561</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>140</v>
+      </c>
+      <c r="E11">
+        <v>98</v>
+      </c>
+      <c r="F11">
+        <v>82</v>
+      </c>
+      <c r="G11">
+        <v>131</v>
+      </c>
+      <c r="H11">
+        <v>0.25</v>
+      </c>
+      <c r="I11">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>238</v>
+      </c>
+      <c r="J11">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>42562</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>162</v>
+      </c>
+      <c r="E12">
+        <v>120</v>
+      </c>
+      <c r="F12">
+        <v>83</v>
+      </c>
+      <c r="G12">
+        <v>135</v>
+      </c>
+      <c r="H12">
+        <v>0.25</v>
+      </c>
+      <c r="I12">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>282</v>
+      </c>
+      <c r="J12">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>42563</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>130</v>
+      </c>
+      <c r="E13">
+        <v>95</v>
+      </c>
+      <c r="F13">
+        <v>84</v>
+      </c>
+      <c r="G13">
+        <v>99</v>
+      </c>
+      <c r="H13">
+        <v>0.25</v>
+      </c>
+      <c r="I13">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>225</v>
+      </c>
+      <c r="J13">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>42564</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>109</v>
+      </c>
+      <c r="E14">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>77</v>
+      </c>
+      <c r="G14">
+        <v>99</v>
+      </c>
+      <c r="H14">
+        <v>0.25</v>
+      </c>
+      <c r="I14">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>184</v>
+      </c>
+      <c r="J14">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>42565</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>122</v>
+      </c>
+      <c r="E15">
+        <v>85</v>
+      </c>
+      <c r="F15">
+        <v>78</v>
+      </c>
+      <c r="G15">
+        <v>113</v>
+      </c>
+      <c r="H15">
+        <v>0.25</v>
+      </c>
+      <c r="I15">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>207</v>
+      </c>
+      <c r="J15">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>42566</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>98</v>
+      </c>
+      <c r="E16">
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <v>75</v>
+      </c>
+      <c r="G16">
+        <v>108</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>160</v>
+      </c>
+      <c r="J16">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>42567</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>81</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>74</v>
+      </c>
+      <c r="G17">
+        <v>90</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>131</v>
+      </c>
+      <c r="J17">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>42568</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>115</v>
+      </c>
+      <c r="E18">
+        <v>76</v>
+      </c>
+      <c r="F18">
+        <v>77</v>
+      </c>
+      <c r="G18">
+        <v>126</v>
+      </c>
+      <c r="H18">
+        <v>0.5</v>
+      </c>
+      <c r="I18">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>191</v>
+      </c>
+      <c r="J18">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>131</v>
+      </c>
+      <c r="E19">
+        <v>92</v>
+      </c>
+      <c r="F19">
+        <v>81</v>
+      </c>
+      <c r="G19">
+        <v>122</v>
+      </c>
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="I19">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>223</v>
+      </c>
+      <c r="J19">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>42570</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>122</v>
+      </c>
+      <c r="E20">
+        <v>85</v>
+      </c>
+      <c r="F20">
+        <v>78</v>
+      </c>
+      <c r="G20">
+        <v>113</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+      <c r="I20">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>207</v>
+      </c>
+      <c r="J20">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>71</v>
+      </c>
+      <c r="E21">
+        <v>42</v>
+      </c>
+      <c r="F21">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>108</v>
+      </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>113</v>
+      </c>
+      <c r="J21">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>83</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>77</v>
+      </c>
+      <c r="G22">
+        <v>90</v>
+      </c>
+      <c r="H22">
+        <v>0.5</v>
+      </c>
+      <c r="I22">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>133</v>
+      </c>
+      <c r="J22">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>42573</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>112</v>
+      </c>
+      <c r="E23">
+        <v>75</v>
+      </c>
+      <c r="F23">
+        <v>80</v>
+      </c>
+      <c r="G23">
+        <v>108</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>187</v>
+      </c>
+      <c r="J23">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>42574</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>120</v>
+      </c>
+      <c r="E24">
+        <v>82</v>
+      </c>
+      <c r="F24">
+        <v>81</v>
+      </c>
+      <c r="G24">
+        <v>117</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>202</v>
+      </c>
+      <c r="J24">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>42575</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>121</v>
+      </c>
+      <c r="E25">
+        <v>82</v>
+      </c>
+      <c r="F25">
+        <v>82</v>
+      </c>
+      <c r="G25">
+        <v>117</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>203</v>
+      </c>
+      <c r="J25">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>42576</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>156</v>
+      </c>
+      <c r="E26">
+        <v>113</v>
+      </c>
+      <c r="F26">
+        <v>84</v>
+      </c>
+      <c r="G26">
+        <v>135</v>
+      </c>
+      <c r="H26">
+        <v>0.5</v>
+      </c>
+      <c r="I26">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>269</v>
+      </c>
+      <c r="J26">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>42577</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>176</v>
+      </c>
+      <c r="E27">
+        <v>129</v>
+      </c>
+      <c r="F27">
+        <v>83</v>
+      </c>
+      <c r="G27">
+        <v>158</v>
+      </c>
+      <c r="H27">
+        <v>0.35</v>
+      </c>
+      <c r="I27">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>305</v>
+      </c>
+      <c r="J27">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>106.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>42578</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>104</v>
+      </c>
+      <c r="E28">
+        <v>68</v>
+      </c>
+      <c r="F28">
+        <v>80</v>
+      </c>
+      <c r="G28">
+        <v>99</v>
+      </c>
+      <c r="H28">
+        <v>0.35</v>
+      </c>
+      <c r="I28">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>172</v>
+      </c>
+      <c r="J28">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>60.199999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>42579</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>96</v>
+      </c>
+      <c r="E29">
+        <v>63</v>
+      </c>
+      <c r="F29">
+        <v>82</v>
+      </c>
+      <c r="G29">
+        <v>90</v>
+      </c>
+      <c r="H29">
+        <v>0.35</v>
+      </c>
+      <c r="I29">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>159</v>
+      </c>
+      <c r="J29">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>55.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>42580</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>66</v>
+      </c>
+      <c r="F30">
+        <v>81</v>
+      </c>
+      <c r="G30">
+        <v>95</v>
+      </c>
+      <c r="H30">
+        <v>0.35</v>
+      </c>
+      <c r="I30">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>166</v>
+      </c>
+      <c r="J30">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>58.099999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>42581</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>88</v>
+      </c>
+      <c r="E31">
+        <v>57</v>
+      </c>
+      <c r="F31">
+        <v>82</v>
+      </c>
+      <c r="G31">
+        <v>81</v>
+      </c>
+      <c r="H31">
+        <v>0.35</v>
+      </c>
+      <c r="I31">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>145</v>
+      </c>
+      <c r="J31">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>50.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>76</v>
+      </c>
+      <c r="E32">
+        <v>47</v>
+      </c>
+      <c r="F32">
+        <v>82</v>
+      </c>
+      <c r="G32">
+        <v>68</v>
+      </c>
+      <c r="H32">
+        <v>0.35</v>
+      </c>
+      <c r="I32">
+        <f>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</f>
+        <v>123</v>
+      </c>
+      <c r="J32">
+        <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
+        <v>43.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/processes/data-analysis/lemonade_data_exploration.xlsx
+++ b/processes/data-analysis/lemonade_data_exploration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zubquzaini/Documents/data_analysis/data-analysis-lemonade-sales/processes/data-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F113E7C-9C49-8A4A-8BB4-8AB84F1691BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDA6C73-7834-BA4D-9535-C6C98750F9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lemonade Original" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,12 @@
     <sheet name="Lemonade Descriptive Statistics" sheetId="11" r:id="rId4"/>
     <sheet name="Lemonade Associative Analysis" sheetId="12" r:id="rId5"/>
     <sheet name="Lemonade Comparative Analysis" sheetId="13" r:id="rId6"/>
+    <sheet name="Lemonade Comparative Analysis 2" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_Day">#N/A</definedName>
     <definedName name="Slicer_Day1">#N/A</definedName>
+    <definedName name="Slicer_Day2">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,8 +33,9 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId7"/>
         <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId10"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -151,6 +154,39 @@
   </si>
   <si>
     <t>Z-Test</t>
+  </si>
+  <si>
+    <t>t-Test: Two-Sample Assuming Equal Variances</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Pooled Variance</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
   </si>
 </sst>
 </file>
@@ -739,7 +775,19 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -943,6 +991,89 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>14195</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2007721</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161544</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Day 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37560B44-8479-A84F-888E-ADC9792996BA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Day 2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8007724" y="3559734"/>
+              <a:ext cx="1993526" cy="2428869"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can’t be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Day" xr10:uid="{6C218F10-C3BB-0F46-8E0F-D110F2C179FE}" sourceName="Day">
   <extLst>
@@ -963,6 +1094,16 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Day2" xr10:uid="{E7DD7C59-4AED-5A47-B21F-BEE191FEE7A6}" sourceName="Day">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="3" column="10"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Day" xr10:uid="{412465AE-E0B9-AA45-853D-0872BBDAF00B}" cache="Slicer_Day" caption="Day" rowHeight="230716"/>
@@ -975,12 +1116,18 @@
 </slicers>
 </file>
 
+<file path=xl/slicers/slicer3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Day 2" xr10:uid="{F026D8E4-D0E1-BA4B-B98C-9CCEC37A006D}" cache="Slicer_Day2" caption="Day" rowHeight="230716"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}" name="Table2" displayName="Table2" ref="A1:J32" totalsRowShown="0">
   <autoFilter ref="A1:J32" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{EFAB94E3-6BB0-2045-B546-207A6256F449}" name="Date" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{64AD10D0-DF2E-204F-9A2E-BCA8D49BEB87}" name="Day" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{EFAB94E3-6BB0-2045-B546-207A6256F449}" name="Date" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{64AD10D0-DF2E-204F-9A2E-BCA8D49BEB87}" name="Day" dataDxfId="10">
       <calculatedColumnFormula>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{C3FA5E41-4CE9-374B-B63B-F48953465538}" name="Location"/>
@@ -989,10 +1136,10 @@
     <tableColumn id="5" xr3:uid="{F0738C15-3DD7-4940-B3C6-7AB81A462B8D}" name="Temperature"/>
     <tableColumn id="6" xr3:uid="{D5B90675-BC57-644B-BB89-4EA6810706E7}" name="Leaflets"/>
     <tableColumn id="7" xr3:uid="{588334A6-9D7E-654A-8B61-E2433474B77C}" name="Price"/>
-    <tableColumn id="8" xr3:uid="{24693B7B-5803-5A40-9344-FFB16F9F9CE6}" name="Sales" dataDxfId="5">
+    <tableColumn id="8" xr3:uid="{24693B7B-5803-5A40-9344-FFB16F9F9CE6}" name="Sales" dataDxfId="9">
       <calculatedColumnFormula>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B49BD8DE-506A-D042-8F38-41F6528509E3}" name="Revenue" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{B49BD8DE-506A-D042-8F38-41F6528509E3}" name="Revenue" dataDxfId="8">
       <calculatedColumnFormula>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1004,8 +1151,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DFFFCFD-D00E-4544-8B32-76C098071E1A}" name="Table22" displayName="Table22" ref="A1:J32" totalsRowShown="0">
   <autoFilter ref="A1:J32" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{AA148E19-76CC-904F-987A-B77EA3803BD4}" name="Date" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{C9D26205-3AEB-CA4F-B617-90096AC3C3D5}" name="Day" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{AA148E19-76CC-904F-987A-B77EA3803BD4}" name="Date" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{C9D26205-3AEB-CA4F-B617-90096AC3C3D5}" name="Day" dataDxfId="6">
       <calculatedColumnFormula>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{72E84BE1-73CD-5046-96C7-2207888DEF4C}" name="Location"/>
@@ -1014,11 +1161,36 @@
     <tableColumn id="5" xr3:uid="{4C8E90E4-7A59-C74F-9D64-8273A21CF86D}" name="Temperature"/>
     <tableColumn id="6" xr3:uid="{18A6359B-5AA4-104E-B2C7-2D8C9F04488A}" name="Leaflets"/>
     <tableColumn id="7" xr3:uid="{A17B9336-8715-8E4B-98C2-0A68B8BF6AB8}" name="Price"/>
-    <tableColumn id="8" xr3:uid="{E25299B9-F2E2-B048-B7B0-19494BF8B6A1}" name="Sales" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{E25299B9-F2E2-B048-B7B0-19494BF8B6A1}" name="Sales" dataDxfId="5">
       <calculatedColumnFormula>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BE6801C4-823F-5342-B1D0-B88BCE743608}" name="Revenue" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{BE6801C4-823F-5342-B1D0-B88BCE743608}" name="Revenue" dataDxfId="4">
       <calculatedColumnFormula>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C32234F-8FB4-7247-8C5E-AE05A749F0E9}" name="Table24" displayName="Table24" ref="A1:J32" totalsRowShown="0">
+  <autoFilter ref="A1:J32" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{5FABB209-2C10-3F49-AD56-0469AE4F5F53}" name="Date" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{A22162E2-AB02-1E47-88E7-F594B74085F9}" name="Day" dataDxfId="2">
+      <calculatedColumnFormula>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{8C3240DC-14C6-C748-9369-8B0E3EED1C9B}" name="Location"/>
+    <tableColumn id="3" xr3:uid="{0DEC5054-27A3-834A-8C0B-6272AE327EBF}" name="Lemon"/>
+    <tableColumn id="4" xr3:uid="{26B607AD-3D47-2F43-A6BD-7E1BDA67B668}" name="Orange"/>
+    <tableColumn id="5" xr3:uid="{7DF8BD8C-3C53-1648-B0F2-5C964484AC6B}" name="Temperature"/>
+    <tableColumn id="6" xr3:uid="{D71373A5-6B65-254F-8E7D-E1F6EA6FCA07}" name="Leaflets"/>
+    <tableColumn id="7" xr3:uid="{52F30F34-0A25-884D-83F8-BBCEC27605AC}" name="Price"/>
+    <tableColumn id="8" xr3:uid="{80FA0C16-B67C-3044-B4CD-F7D081F434D2}" name="Sales" dataDxfId="1">
+      <calculatedColumnFormula>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{2A8A093B-D6AA-3D49-9272-BA25D4E4A75F}" name="Revenue" dataDxfId="0">
+      <calculatedColumnFormula>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4840,7 +5012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419A6AE1-D3CD-F744-B19D-DE10C517DF7C}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+    <sheetView zoomScale="114" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -6016,4 +6188,1247 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22380B1E-B542-7C43-9F32-470BB1A0B8ED}">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="12" max="12" width="36.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>97</v>
+      </c>
+      <c r="E2">
+        <v>67</v>
+      </c>
+      <c r="F2">
+        <v>70</v>
+      </c>
+      <c r="G2">
+        <v>90</v>
+      </c>
+      <c r="H2">
+        <v>0.25</v>
+      </c>
+      <c r="I2">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>164</v>
+      </c>
+      <c r="J2">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42553</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>98</v>
+      </c>
+      <c r="E3">
+        <v>67</v>
+      </c>
+      <c r="F3">
+        <v>72</v>
+      </c>
+      <c r="G3">
+        <v>90</v>
+      </c>
+      <c r="H3">
+        <v>0.25</v>
+      </c>
+      <c r="I3">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>165</v>
+      </c>
+      <c r="J3">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>41.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>110</v>
+      </c>
+      <c r="E4">
+        <v>77</v>
+      </c>
+      <c r="F4">
+        <v>71</v>
+      </c>
+      <c r="G4">
+        <v>104</v>
+      </c>
+      <c r="H4">
+        <v>0.25</v>
+      </c>
+      <c r="I4">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>187</v>
+      </c>
+      <c r="J4">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>46.75</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>42555</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>134</v>
+      </c>
+      <c r="E5">
+        <v>99</v>
+      </c>
+      <c r="F5">
+        <v>76</v>
+      </c>
+      <c r="G5">
+        <v>98</v>
+      </c>
+      <c r="H5">
+        <v>0.25</v>
+      </c>
+      <c r="I5">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>233</v>
+      </c>
+      <c r="J5">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>58.25</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="2">
+        <v>116.58064516129032</v>
+      </c>
+      <c r="N5" s="2">
+        <v>80.354838709677423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>42556</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>159</v>
+      </c>
+      <c r="E6">
+        <v>118</v>
+      </c>
+      <c r="F6">
+        <v>78</v>
+      </c>
+      <c r="G6">
+        <v>135</v>
+      </c>
+      <c r="H6">
+        <v>0.25</v>
+      </c>
+      <c r="I6">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>277</v>
+      </c>
+      <c r="J6">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>69.25</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2">
+        <v>683.11827956989293</v>
+      </c>
+      <c r="N6" s="2">
+        <v>489.7698924731182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>42557</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>69</v>
+      </c>
+      <c r="F7">
+        <v>82</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
+      <c r="H7">
+        <v>0.25</v>
+      </c>
+      <c r="I7">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>172</v>
+      </c>
+      <c r="J7">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>43</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="2">
+        <v>31</v>
+      </c>
+      <c r="N7" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>42558</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>143</v>
+      </c>
+      <c r="E8">
+        <v>101</v>
+      </c>
+      <c r="F8">
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <v>135</v>
+      </c>
+      <c r="H8">
+        <v>0.25</v>
+      </c>
+      <c r="I8">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>244</v>
+      </c>
+      <c r="J8">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>61</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="2">
+        <v>586.44408602150554</v>
+      </c>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>42559</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>123</v>
+      </c>
+      <c r="E9">
+        <v>86</v>
+      </c>
+      <c r="F9">
+        <v>82</v>
+      </c>
+      <c r="G9">
+        <v>113</v>
+      </c>
+      <c r="H9">
+        <v>0.25</v>
+      </c>
+      <c r="I9">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>209</v>
+      </c>
+      <c r="J9">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>52.25</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>42560</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>134</v>
+      </c>
+      <c r="E10">
+        <v>95</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>126</v>
+      </c>
+      <c r="H10">
+        <v>0.25</v>
+      </c>
+      <c r="I10">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>229</v>
+      </c>
+      <c r="J10">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>57.25</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="2">
+        <v>60</v>
+      </c>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>42561</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>140</v>
+      </c>
+      <c r="E11">
+        <v>98</v>
+      </c>
+      <c r="F11">
+        <v>82</v>
+      </c>
+      <c r="G11">
+        <v>131</v>
+      </c>
+      <c r="H11">
+        <v>0.25</v>
+      </c>
+      <c r="I11">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>238</v>
+      </c>
+      <c r="J11">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>59.5</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="2">
+        <v>5.8893939518238767</v>
+      </c>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>42562</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>162</v>
+      </c>
+      <c r="E12">
+        <v>120</v>
+      </c>
+      <c r="F12">
+        <v>83</v>
+      </c>
+      <c r="G12">
+        <v>135</v>
+      </c>
+      <c r="H12">
+        <v>0.25</v>
+      </c>
+      <c r="I12">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>282</v>
+      </c>
+      <c r="J12">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>70.5</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M12" s="2">
+        <v>9.3931126296514368E-8</v>
+      </c>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>42563</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>130</v>
+      </c>
+      <c r="E13">
+        <v>95</v>
+      </c>
+      <c r="F13">
+        <v>84</v>
+      </c>
+      <c r="G13">
+        <v>99</v>
+      </c>
+      <c r="H13">
+        <v>0.25</v>
+      </c>
+      <c r="I13">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>225</v>
+      </c>
+      <c r="J13">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>56.25</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1.6706488649046354</v>
+      </c>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>42564</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>109</v>
+      </c>
+      <c r="E14">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>77</v>
+      </c>
+      <c r="G14">
+        <v>99</v>
+      </c>
+      <c r="H14">
+        <v>0.25</v>
+      </c>
+      <c r="I14">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>184</v>
+      </c>
+      <c r="J14">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>46</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1.8786225259302874E-7</v>
+      </c>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42565</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>122</v>
+      </c>
+      <c r="E15">
+        <v>85</v>
+      </c>
+      <c r="F15">
+        <v>78</v>
+      </c>
+      <c r="G15">
+        <v>113</v>
+      </c>
+      <c r="H15">
+        <v>0.25</v>
+      </c>
+      <c r="I15">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>207</v>
+      </c>
+      <c r="J15">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>51.75</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="3">
+        <v>2.0002978220142609</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>42566</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>98</v>
+      </c>
+      <c r="E16">
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <v>75</v>
+      </c>
+      <c r="G16">
+        <v>108</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>160</v>
+      </c>
+      <c r="J16">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>42567</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>81</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>74</v>
+      </c>
+      <c r="G17">
+        <v>90</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>131</v>
+      </c>
+      <c r="J17">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>42568</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>115</v>
+      </c>
+      <c r="E18">
+        <v>76</v>
+      </c>
+      <c r="F18">
+        <v>77</v>
+      </c>
+      <c r="G18">
+        <v>126</v>
+      </c>
+      <c r="H18">
+        <v>0.5</v>
+      </c>
+      <c r="I18">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>191</v>
+      </c>
+      <c r="J18">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>131</v>
+      </c>
+      <c r="E19">
+        <v>92</v>
+      </c>
+      <c r="F19">
+        <v>81</v>
+      </c>
+      <c r="G19">
+        <v>122</v>
+      </c>
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="I19">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>223</v>
+      </c>
+      <c r="J19">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>42570</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>122</v>
+      </c>
+      <c r="E20">
+        <v>85</v>
+      </c>
+      <c r="F20">
+        <v>78</v>
+      </c>
+      <c r="G20">
+        <v>113</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+      <c r="I20">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>207</v>
+      </c>
+      <c r="J20">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>71</v>
+      </c>
+      <c r="E21">
+        <v>42</v>
+      </c>
+      <c r="F21">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>108</v>
+      </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>113</v>
+      </c>
+      <c r="J21">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>83</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>77</v>
+      </c>
+      <c r="G22">
+        <v>90</v>
+      </c>
+      <c r="H22">
+        <v>0.5</v>
+      </c>
+      <c r="I22">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>133</v>
+      </c>
+      <c r="J22">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>42573</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>112</v>
+      </c>
+      <c r="E23">
+        <v>75</v>
+      </c>
+      <c r="F23">
+        <v>80</v>
+      </c>
+      <c r="G23">
+        <v>108</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>187</v>
+      </c>
+      <c r="J23">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>42574</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>120</v>
+      </c>
+      <c r="E24">
+        <v>82</v>
+      </c>
+      <c r="F24">
+        <v>81</v>
+      </c>
+      <c r="G24">
+        <v>117</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>202</v>
+      </c>
+      <c r="J24">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>42575</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>121</v>
+      </c>
+      <c r="E25">
+        <v>82</v>
+      </c>
+      <c r="F25">
+        <v>82</v>
+      </c>
+      <c r="G25">
+        <v>117</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>203</v>
+      </c>
+      <c r="J25">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>42576</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>156</v>
+      </c>
+      <c r="E26">
+        <v>113</v>
+      </c>
+      <c r="F26">
+        <v>84</v>
+      </c>
+      <c r="G26">
+        <v>135</v>
+      </c>
+      <c r="H26">
+        <v>0.5</v>
+      </c>
+      <c r="I26">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>269</v>
+      </c>
+      <c r="J26">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>42577</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>176</v>
+      </c>
+      <c r="E27">
+        <v>129</v>
+      </c>
+      <c r="F27">
+        <v>83</v>
+      </c>
+      <c r="G27">
+        <v>158</v>
+      </c>
+      <c r="H27">
+        <v>0.35</v>
+      </c>
+      <c r="I27">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>305</v>
+      </c>
+      <c r="J27">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>106.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>42578</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>104</v>
+      </c>
+      <c r="E28">
+        <v>68</v>
+      </c>
+      <c r="F28">
+        <v>80</v>
+      </c>
+      <c r="G28">
+        <v>99</v>
+      </c>
+      <c r="H28">
+        <v>0.35</v>
+      </c>
+      <c r="I28">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>172</v>
+      </c>
+      <c r="J28">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>60.199999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>42579</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>96</v>
+      </c>
+      <c r="E29">
+        <v>63</v>
+      </c>
+      <c r="F29">
+        <v>82</v>
+      </c>
+      <c r="G29">
+        <v>90</v>
+      </c>
+      <c r="H29">
+        <v>0.35</v>
+      </c>
+      <c r="I29">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>159</v>
+      </c>
+      <c r="J29">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>55.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>42580</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>66</v>
+      </c>
+      <c r="F30">
+        <v>81</v>
+      </c>
+      <c r="G30">
+        <v>95</v>
+      </c>
+      <c r="H30">
+        <v>0.35</v>
+      </c>
+      <c r="I30">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>166</v>
+      </c>
+      <c r="J30">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>58.099999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>42581</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>88</v>
+      </c>
+      <c r="E31">
+        <v>57</v>
+      </c>
+      <c r="F31">
+        <v>82</v>
+      </c>
+      <c r="G31">
+        <v>81</v>
+      </c>
+      <c r="H31">
+        <v>0.35</v>
+      </c>
+      <c r="I31">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>145</v>
+      </c>
+      <c r="J31">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>50.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>76</v>
+      </c>
+      <c r="E32">
+        <v>47</v>
+      </c>
+      <c r="F32">
+        <v>82</v>
+      </c>
+      <c r="G32">
+        <v>68</v>
+      </c>
+      <c r="H32">
+        <v>0.35</v>
+      </c>
+      <c r="I32">
+        <f>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</f>
+        <v>123</v>
+      </c>
+      <c r="J32">
+        <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
+        <v>43.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/processes/data-analysis/lemonade_data_exploration.xlsx
+++ b/processes/data-analysis/lemonade_data_exploration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zubquzaini/Documents/data_analysis/data-analysis-lemonade-sales/processes/data-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDA6C73-7834-BA4D-9535-C6C98750F9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F59B9C-2A27-424D-BC33-AC8C9BC748CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lemonade Original" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,14 @@
     <sheet name="Lemonade Associative Analysis" sheetId="12" r:id="rId5"/>
     <sheet name="Lemonade Comparative Analysis" sheetId="13" r:id="rId6"/>
     <sheet name="Lemonade Comparative Analysis 2" sheetId="14" r:id="rId7"/>
+    <sheet name="Lemonade ANOVA" sheetId="15" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_Day">#N/A</definedName>
     <definedName name="Slicer_Day1">#N/A</definedName>
     <definedName name="Slicer_Day2">#N/A</definedName>
+    <definedName name="Slicer_Day3">#N/A</definedName>
+    <definedName name="Slicer_Location">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,9 +36,11 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId8"/>
         <x14:slicerCache r:id="rId9"/>
         <x14:slicerCache r:id="rId10"/>
+        <x14:slicerCache r:id="rId11"/>
+        <x14:slicerCache r:id="rId12"/>
+        <x14:slicerCache r:id="rId13"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -52,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="63">
   <si>
     <t>Date</t>
   </si>
@@ -147,6 +152,9 @@
     <t>Threshold</t>
   </si>
   <si>
+    <t>P-value</t>
+  </si>
+  <si>
     <t>Null hypotheses</t>
   </si>
   <si>
@@ -188,12 +196,63 @@
   <si>
     <t>t Critical two-tail</t>
   </si>
+  <si>
+    <t>Lemon_beach</t>
+  </si>
+  <si>
+    <t>Orange_beach</t>
+  </si>
+  <si>
+    <t>Lemon_park</t>
+  </si>
+  <si>
+    <t>Orange_park</t>
+  </si>
+  <si>
+    <t>Anova: Single Factor</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Groups</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>Between Groups</t>
+  </si>
+  <si>
+    <t>Within Groups</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +391,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -524,7 +590,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -642,6 +708,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -665,6 +751,26 @@
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,12 +819,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -726,10 +834,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -775,7 +885,19 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1074,6 +1196,167 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>632262</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>366681</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180221</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Day 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB5A6A4-D1DE-4743-947B-7A87ABD8277E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Day 3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8024313" y="553781"/>
+              <a:ext cx="1997624" cy="2435094"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can’t be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>603623</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>415364</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>187243</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Location">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF6BCD6-0420-7C46-A7B3-5F8A4F4A193F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Location"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10258879" y="566587"/>
+              <a:ext cx="1838857" cy="2429310"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This shape represents a table slicer. Table slicers are not supported in this version of Excel.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2007 or earlier, the slicer can’t be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Day" xr10:uid="{6C218F10-C3BB-0F46-8E0F-D110F2C179FE}" sourceName="Day">
   <extLst>
@@ -1104,6 +1387,26 @@
 </slicerCacheDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Day3" xr10:uid="{43197AE5-4907-8C4E-B709-443E0B28C0FA}" sourceName="Day">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="4" column="10"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache5.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Location" xr10:uid="{53D02FF5-BBBB-C14A-9103-B20C0092063E}" sourceName="Location">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="4" column="2"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Day" xr10:uid="{412465AE-E0B9-AA45-853D-0872BBDAF00B}" cache="Slicer_Day" caption="Day" rowHeight="230716"/>
@@ -1122,12 +1425,19 @@
 </slicers>
 </file>
 
+<file path=xl/slicers/slicer4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Day 3" xr10:uid="{AF5E0CA2-80D8-E449-B586-8B4534A00E79}" cache="Slicer_Day3" caption="Day" rowHeight="230716"/>
+  <slicer name="Location" xr10:uid="{BE724477-B765-034B-976E-50FD8EF6CDFE}" cache="Slicer_Location" caption="Location" rowHeight="230716"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}" name="Table2" displayName="Table2" ref="A1:J32" totalsRowShown="0">
   <autoFilter ref="A1:J32" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{EFAB94E3-6BB0-2045-B546-207A6256F449}" name="Date" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{64AD10D0-DF2E-204F-9A2E-BCA8D49BEB87}" name="Day" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{EFAB94E3-6BB0-2045-B546-207A6256F449}" name="Date" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{64AD10D0-DF2E-204F-9A2E-BCA8D49BEB87}" name="Day" dataDxfId="14">
       <calculatedColumnFormula>TEXT(WEEKDAY(Table2[[#This Row],[Date]]), "dddd")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{C3FA5E41-4CE9-374B-B63B-F48953465538}" name="Location"/>
@@ -1136,10 +1446,10 @@
     <tableColumn id="5" xr3:uid="{F0738C15-3DD7-4940-B3C6-7AB81A462B8D}" name="Temperature"/>
     <tableColumn id="6" xr3:uid="{D5B90675-BC57-644B-BB89-4EA6810706E7}" name="Leaflets"/>
     <tableColumn id="7" xr3:uid="{588334A6-9D7E-654A-8B61-E2433474B77C}" name="Price"/>
-    <tableColumn id="8" xr3:uid="{24693B7B-5803-5A40-9344-FFB16F9F9CE6}" name="Sales" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{24693B7B-5803-5A40-9344-FFB16F9F9CE6}" name="Sales" dataDxfId="13">
       <calculatedColumnFormula>Table2[[#This Row],[Lemon]]+Table2[[#This Row],[Orange]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B49BD8DE-506A-D042-8F38-41F6528509E3}" name="Revenue" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{B49BD8DE-506A-D042-8F38-41F6528509E3}" name="Revenue" dataDxfId="12">
       <calculatedColumnFormula>Table2[[#This Row],[Sales]]*Table2[[#This Row],[Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1151,8 +1461,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DFFFCFD-D00E-4544-8B32-76C098071E1A}" name="Table22" displayName="Table22" ref="A1:J32" totalsRowShown="0">
   <autoFilter ref="A1:J32" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{AA148E19-76CC-904F-987A-B77EA3803BD4}" name="Date" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{C9D26205-3AEB-CA4F-B617-90096AC3C3D5}" name="Day" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{AA148E19-76CC-904F-987A-B77EA3803BD4}" name="Date" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{C9D26205-3AEB-CA4F-B617-90096AC3C3D5}" name="Day" dataDxfId="10">
       <calculatedColumnFormula>TEXT(WEEKDAY(Table22[[#This Row],[Date]]), "dddd")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{72E84BE1-73CD-5046-96C7-2207888DEF4C}" name="Location"/>
@@ -1161,10 +1471,10 @@
     <tableColumn id="5" xr3:uid="{4C8E90E4-7A59-C74F-9D64-8273A21CF86D}" name="Temperature"/>
     <tableColumn id="6" xr3:uid="{18A6359B-5AA4-104E-B2C7-2D8C9F04488A}" name="Leaflets"/>
     <tableColumn id="7" xr3:uid="{A17B9336-8715-8E4B-98C2-0A68B8BF6AB8}" name="Price"/>
-    <tableColumn id="8" xr3:uid="{E25299B9-F2E2-B048-B7B0-19494BF8B6A1}" name="Sales" dataDxfId="5">
+    <tableColumn id="8" xr3:uid="{E25299B9-F2E2-B048-B7B0-19494BF8B6A1}" name="Sales" dataDxfId="9">
       <calculatedColumnFormula>Table22[[#This Row],[Lemon]]+Table22[[#This Row],[Orange]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{BE6801C4-823F-5342-B1D0-B88BCE743608}" name="Revenue" dataDxfId="4">
+    <tableColumn id="9" xr3:uid="{BE6801C4-823F-5342-B1D0-B88BCE743608}" name="Revenue" dataDxfId="8">
       <calculatedColumnFormula>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1176,8 +1486,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C32234F-8FB4-7247-8C5E-AE05A749F0E9}" name="Table24" displayName="Table24" ref="A1:J32" totalsRowShown="0">
   <autoFilter ref="A1:J32" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{5FABB209-2C10-3F49-AD56-0469AE4F5F53}" name="Date" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{A22162E2-AB02-1E47-88E7-F594B74085F9}" name="Day" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{5FABB209-2C10-3F49-AD56-0469AE4F5F53}" name="Date" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{A22162E2-AB02-1E47-88E7-F594B74085F9}" name="Day" dataDxfId="6">
       <calculatedColumnFormula>TEXT(WEEKDAY(Table24[[#This Row],[Date]]), "dddd")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{8C3240DC-14C6-C748-9369-8B0E3EED1C9B}" name="Location"/>
@@ -1186,11 +1496,36 @@
     <tableColumn id="5" xr3:uid="{7DF8BD8C-3C53-1648-B0F2-5C964484AC6B}" name="Temperature"/>
     <tableColumn id="6" xr3:uid="{D71373A5-6B65-254F-8E7D-E1F6EA6FCA07}" name="Leaflets"/>
     <tableColumn id="7" xr3:uid="{52F30F34-0A25-884D-83F8-BBCEC27605AC}" name="Price"/>
-    <tableColumn id="8" xr3:uid="{80FA0C16-B67C-3044-B4CD-F7D081F434D2}" name="Sales" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{80FA0C16-B67C-3044-B4CD-F7D081F434D2}" name="Sales" dataDxfId="5">
       <calculatedColumnFormula>Table24[[#This Row],[Lemon]]+Table24[[#This Row],[Orange]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{2A8A093B-D6AA-3D49-9272-BA25D4E4A75F}" name="Revenue" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{2A8A093B-D6AA-3D49-9272-BA25D4E4A75F}" name="Revenue" dataDxfId="4">
       <calculatedColumnFormula>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D6490C3C-23F9-6243-9E2B-920ABBABB353}" name="Table25" displayName="Table25" ref="A1:J32" totalsRowShown="0">
+  <autoFilter ref="A1:J32" xr:uid="{B9658051-DB12-4B45-AF34-43C72E0DD2D3}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{2D60F985-712D-6943-9878-31BD88F482D2}" name="Date" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{617BEAA7-5804-D448-89EE-F7455A123D52}" name="Day" dataDxfId="2">
+      <calculatedColumnFormula>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{C79E1A46-7117-154B-9CA4-8058129A7862}" name="Location"/>
+    <tableColumn id="3" xr3:uid="{61A98FCB-B788-D742-8FB2-C53613182C68}" name="Lemon"/>
+    <tableColumn id="4" xr3:uid="{ECC36DBF-D2DD-264D-9DAC-46EE7D24B7B0}" name="Orange"/>
+    <tableColumn id="5" xr3:uid="{389701EA-BEC0-C449-94B5-A34847A7943B}" name="Temperature"/>
+    <tableColumn id="6" xr3:uid="{FD832111-0551-A746-9D3F-8DCA04864D94}" name="Leaflets"/>
+    <tableColumn id="7" xr3:uid="{769A1E1C-FB49-C84A-9672-246CAAA3681C}" name="Price"/>
+    <tableColumn id="8" xr3:uid="{F57C9284-3368-FB4B-9CFC-7AC2CEDFE75E}" name="Sales" dataDxfId="1">
+      <calculatedColumnFormula>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{6568A7C8-CD1D-634A-B5A1-99711D658971}" name="Revenue" dataDxfId="0">
+      <calculatedColumnFormula>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4201,620 +4536,620 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>116.58064516129032</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>80.354838709677423</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>78.870967741935488</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>109.12903225806451</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="4">
         <v>0.35806451612903217</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="4">
         <v>196.93548387096774</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="4">
         <v>68.967741935483872</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>4.6942596364616094</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>3.9747992137283399</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>0.73578563890370041</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>3.56015643473012</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="4">
         <v>2.0359243256732815E-2</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="4">
         <v>8.661984113499523</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="4">
         <v>4.4208958540796655</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>115</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>77</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>80</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>108</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="4">
         <v>0.35</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="4">
         <v>191</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="4">
         <v>59.5</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>98</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>67</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>82</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <v>90</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="4">
         <v>0.25</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="4">
         <v>187</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="2" t="e">
+      <c r="N6" s="4" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>26.13653151376236</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>22.130745411601442</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>4.0966810589701419</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>19.822112123390347</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="4">
         <v>0.11335546905902438</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="4">
         <v>48.227886458542436</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="4">
         <v>24.614506388127751</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="4">
         <v>683.11827956989293</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>489.7698924731182</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>16.782795698924723</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>392.91612903225854</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="4">
         <v>1.2849462365591435E-2</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="4">
         <v>2325.9290322580609</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="4">
         <v>605.87392473118189</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="4">
         <v>-0.29698597309084418</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="4">
         <v>-0.35836015666884879</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>-0.13428863746643094</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>-8.0352240068558345E-2</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="4">
         <v>-1.7531353156375418</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="4">
         <v>-0.32390101912181457</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="4">
         <v>0.14407492622077234</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="4">
         <v>0.36388972666609648</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="4">
         <v>0.3598684599684468</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>-0.91163462314131105</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>0.31131630819781647</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="4">
         <v>0.33716585048405046</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="4">
         <v>0.36227744053700056</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="4">
         <v>1.017845327158672</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>105</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>87</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>14</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <v>90</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="4">
         <v>0.25</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="4">
         <v>192</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="4">
         <v>93.5</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="4">
         <v>71</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="4">
         <v>42</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>70</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>68</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="4">
         <v>0.25</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="4">
         <v>113</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="4">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="4">
         <v>176</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="4">
         <v>129</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>84</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="4">
         <v>158</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="4">
         <v>0.5</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="4">
         <v>305</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="4">
         <v>134.5</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="4">
         <v>3614</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="4">
         <v>2491</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="4">
         <v>2445</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="4">
         <v>3383</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="4">
         <v>11.099999999999998</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="4">
         <v>6105</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="4">
         <v>2138</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>31</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>31</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="5">
         <v>31</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="5">
         <v>31</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="5">
         <v>31</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="5">
         <v>31</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="5">
         <v>31</v>
       </c>
     </row>
@@ -4834,174 +5169,174 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="4">
         <v>0.99671433953351241</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>0.47734477085330207</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>0.4531156468834312</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="4">
         <v>0.86039768267707717</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>0.82920180911580899</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="8">
         <v>0.290834822190429</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>-0.27053035854558855</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>-0.31808336893802641</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>-3.3574567075296491E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>2.9933118068888143E-2</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>0.99930903775971747</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>0.99903613231020372</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>0.46661641888188637</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>0.8467852995205265</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>-0.29257237534797398</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>1</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>0.46927551574100385</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>0.426955273482299</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>0.3394465005728633</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>0.60141227341794568</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>0.70225907347496253</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="5">
         <v>0.45023894596842939</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5023,7 +5358,7 @@
     <col min="3" max="3" width="9.1640625" customWidth="1"/>
     <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="12" max="12" width="19.5" customWidth="1"/>
-    <col min="13" max="13" width="8.83203125" style="7"/>
+    <col min="13" max="13" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -5166,9 +5501,9 @@
         <v>46.75</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5209,7 +5544,7 @@
       <c r="L5" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5247,10 +5582,10 @@
         <f>Table22[[#This Row],[Sales]]*Table22[[#This Row],[Price]]</f>
         <v>69.25</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="11">
         <v>0.05</v>
       </c>
     </row>
@@ -5289,9 +5624,9 @@
         <v>43</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="7">
+        <v>34</v>
+      </c>
+      <c r="M7" s="9">
         <f>_xlfn.Z.TEST(Table22[Sales],200)</f>
         <v>0.63825155304809944</v>
       </c>
@@ -5401,7 +5736,7 @@
         <v>57.25</v>
       </c>
       <c r="L10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -6194,7 +6529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22380B1E-B542-7C43-9F32-470BB1A0B8ED}">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+    <sheetView zoomScale="136" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -6274,7 +6609,7 @@
         <v>41</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -6346,11 +6681,11 @@
         <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
         <v>46.75</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6388,13 +6723,13 @@
         <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
         <v>58.25</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="4">
         <v>116.58064516129032</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="4">
         <v>80.354838709677423</v>
       </c>
     </row>
@@ -6432,13 +6767,13 @@
         <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
         <v>69.25</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="L6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="4">
         <v>683.11827956989293</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="4">
         <v>489.7698924731182</v>
       </c>
     </row>
@@ -6476,13 +6811,13 @@
         <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
         <v>43</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="L7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="4">
         <v>31</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="4">
         <v>31</v>
       </c>
     </row>
@@ -6520,13 +6855,13 @@
         <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
         <v>61</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="L8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="4">
         <v>586.44408602150554</v>
       </c>
-      <c r="N8" s="2"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -6562,13 +6897,13 @@
         <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
         <v>52.25</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="L9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="4">
         <v>0</v>
       </c>
-      <c r="N9" s="2"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -6604,13 +6939,13 @@
         <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
         <v>57.25</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="L10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="4">
         <v>60</v>
       </c>
-      <c r="N10" s="2"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -6646,13 +6981,13 @@
         <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
         <v>59.5</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="L11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="4">
         <v>5.8893939518238767</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -6688,13 +7023,13 @@
         <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
         <v>70.5</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="L12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="4">
         <v>9.3931126296514368E-8</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -6730,13 +7065,13 @@
         <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
         <v>56.25</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="L13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" s="4">
         <v>1.6706488649046354</v>
       </c>
-      <c r="N13" s="2"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -6772,13 +7107,13 @@
         <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
         <v>46</v>
       </c>
-      <c r="L14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="L14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="4">
         <v>1.8786225259302874E-7</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -6814,13 +7149,13 @@
         <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
         <v>51.75</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="L15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="5">
         <v>2.0002978220142609</v>
       </c>
-      <c r="N15" s="3"/>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -7415,6 +7750,1552 @@
       <c r="J32">
         <f>Table24[[#This Row],[Sales]]*Table24[[#This Row],[Price]]</f>
         <v>43.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C44B93-BC2A-C84D-9566-D10302C093BF}">
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="156" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>97</v>
+      </c>
+      <c r="E2">
+        <v>67</v>
+      </c>
+      <c r="F2">
+        <v>70</v>
+      </c>
+      <c r="G2">
+        <v>90</v>
+      </c>
+      <c r="H2">
+        <v>0.25</v>
+      </c>
+      <c r="I2">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>164</v>
+      </c>
+      <c r="J2">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>42553</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>98</v>
+      </c>
+      <c r="E3">
+        <v>67</v>
+      </c>
+      <c r="F3">
+        <v>72</v>
+      </c>
+      <c r="G3">
+        <v>90</v>
+      </c>
+      <c r="H3">
+        <v>0.25</v>
+      </c>
+      <c r="I3">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>165</v>
+      </c>
+      <c r="J3">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>41.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>110</v>
+      </c>
+      <c r="E4">
+        <v>77</v>
+      </c>
+      <c r="F4">
+        <v>71</v>
+      </c>
+      <c r="G4">
+        <v>104</v>
+      </c>
+      <c r="H4">
+        <v>0.25</v>
+      </c>
+      <c r="I4">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>187</v>
+      </c>
+      <c r="J4">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>42555</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>134</v>
+      </c>
+      <c r="E5">
+        <v>99</v>
+      </c>
+      <c r="F5">
+        <v>76</v>
+      </c>
+      <c r="G5">
+        <v>98</v>
+      </c>
+      <c r="H5">
+        <v>0.25</v>
+      </c>
+      <c r="I5">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>233</v>
+      </c>
+      <c r="J5">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>58.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>42556</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>159</v>
+      </c>
+      <c r="E6">
+        <v>118</v>
+      </c>
+      <c r="F6">
+        <v>78</v>
+      </c>
+      <c r="G6">
+        <v>135</v>
+      </c>
+      <c r="H6">
+        <v>0.25</v>
+      </c>
+      <c r="I6">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>277</v>
+      </c>
+      <c r="J6">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>69.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>42557</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>103</v>
+      </c>
+      <c r="E7">
+        <v>69</v>
+      </c>
+      <c r="F7">
+        <v>82</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
+      <c r="H7">
+        <v>0.25</v>
+      </c>
+      <c r="I7">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>172</v>
+      </c>
+      <c r="J7">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>42558</v>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>143</v>
+      </c>
+      <c r="E8">
+        <v>101</v>
+      </c>
+      <c r="F8">
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <v>135</v>
+      </c>
+      <c r="H8">
+        <v>0.25</v>
+      </c>
+      <c r="I8">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>244</v>
+      </c>
+      <c r="J8">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>42559</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>123</v>
+      </c>
+      <c r="E9">
+        <v>86</v>
+      </c>
+      <c r="F9">
+        <v>82</v>
+      </c>
+      <c r="G9">
+        <v>113</v>
+      </c>
+      <c r="H9">
+        <v>0.25</v>
+      </c>
+      <c r="I9">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>209</v>
+      </c>
+      <c r="J9">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>52.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>42560</v>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>134</v>
+      </c>
+      <c r="E10">
+        <v>95</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>126</v>
+      </c>
+      <c r="H10">
+        <v>0.25</v>
+      </c>
+      <c r="I10">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>229</v>
+      </c>
+      <c r="J10">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>42561</v>
+      </c>
+      <c r="B11" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>140</v>
+      </c>
+      <c r="E11">
+        <v>98</v>
+      </c>
+      <c r="F11">
+        <v>82</v>
+      </c>
+      <c r="G11">
+        <v>131</v>
+      </c>
+      <c r="H11">
+        <v>0.25</v>
+      </c>
+      <c r="I11">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>238</v>
+      </c>
+      <c r="J11">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>42562</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>162</v>
+      </c>
+      <c r="E12">
+        <v>120</v>
+      </c>
+      <c r="F12">
+        <v>83</v>
+      </c>
+      <c r="G12">
+        <v>135</v>
+      </c>
+      <c r="H12">
+        <v>0.25</v>
+      </c>
+      <c r="I12">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>282</v>
+      </c>
+      <c r="J12">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>42563</v>
+      </c>
+      <c r="B13" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>130</v>
+      </c>
+      <c r="E13">
+        <v>95</v>
+      </c>
+      <c r="F13">
+        <v>84</v>
+      </c>
+      <c r="G13">
+        <v>99</v>
+      </c>
+      <c r="H13">
+        <v>0.25</v>
+      </c>
+      <c r="I13">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>225</v>
+      </c>
+      <c r="J13">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>42564</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>109</v>
+      </c>
+      <c r="E14">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>77</v>
+      </c>
+      <c r="G14">
+        <v>99</v>
+      </c>
+      <c r="H14">
+        <v>0.25</v>
+      </c>
+      <c r="I14">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>184</v>
+      </c>
+      <c r="J14">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>42565</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>122</v>
+      </c>
+      <c r="E15">
+        <v>85</v>
+      </c>
+      <c r="F15">
+        <v>78</v>
+      </c>
+      <c r="G15">
+        <v>113</v>
+      </c>
+      <c r="H15">
+        <v>0.25</v>
+      </c>
+      <c r="I15">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>207</v>
+      </c>
+      <c r="J15">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>42566</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>98</v>
+      </c>
+      <c r="E16">
+        <v>62</v>
+      </c>
+      <c r="F16">
+        <v>75</v>
+      </c>
+      <c r="G16">
+        <v>108</v>
+      </c>
+      <c r="H16">
+        <v>0.5</v>
+      </c>
+      <c r="I16">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>160</v>
+      </c>
+      <c r="J16">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>42567</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>81</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+      <c r="F17">
+        <v>74</v>
+      </c>
+      <c r="G17">
+        <v>90</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>131</v>
+      </c>
+      <c r="J17">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>42568</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>115</v>
+      </c>
+      <c r="E18">
+        <v>76</v>
+      </c>
+      <c r="F18">
+        <v>77</v>
+      </c>
+      <c r="G18">
+        <v>126</v>
+      </c>
+      <c r="H18">
+        <v>0.5</v>
+      </c>
+      <c r="I18">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>191</v>
+      </c>
+      <c r="J18">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>131</v>
+      </c>
+      <c r="E19">
+        <v>92</v>
+      </c>
+      <c r="F19">
+        <v>81</v>
+      </c>
+      <c r="G19">
+        <v>122</v>
+      </c>
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="I19">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>223</v>
+      </c>
+      <c r="J19">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>111.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>42570</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>122</v>
+      </c>
+      <c r="E20">
+        <v>85</v>
+      </c>
+      <c r="F20">
+        <v>78</v>
+      </c>
+      <c r="G20">
+        <v>113</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+      <c r="I20">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>207</v>
+      </c>
+      <c r="J20">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>103.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>71</v>
+      </c>
+      <c r="E21">
+        <v>42</v>
+      </c>
+      <c r="F21">
+        <v>70</v>
+      </c>
+      <c r="G21">
+        <v>108</v>
+      </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>113</v>
+      </c>
+      <c r="J21">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>83</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>77</v>
+      </c>
+      <c r="G22">
+        <v>90</v>
+      </c>
+      <c r="H22">
+        <v>0.5</v>
+      </c>
+      <c r="I22">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>133</v>
+      </c>
+      <c r="J22">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>42573</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>112</v>
+      </c>
+      <c r="E23">
+        <v>75</v>
+      </c>
+      <c r="F23">
+        <v>80</v>
+      </c>
+      <c r="G23">
+        <v>108</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>187</v>
+      </c>
+      <c r="J23">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>42574</v>
+      </c>
+      <c r="B24" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>120</v>
+      </c>
+      <c r="E24">
+        <v>82</v>
+      </c>
+      <c r="F24">
+        <v>81</v>
+      </c>
+      <c r="G24">
+        <v>117</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>202</v>
+      </c>
+      <c r="J24">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>42575</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>121</v>
+      </c>
+      <c r="E25">
+        <v>82</v>
+      </c>
+      <c r="F25">
+        <v>82</v>
+      </c>
+      <c r="G25">
+        <v>117</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>203</v>
+      </c>
+      <c r="J25">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>42576</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Monday</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>156</v>
+      </c>
+      <c r="E26">
+        <v>113</v>
+      </c>
+      <c r="F26">
+        <v>84</v>
+      </c>
+      <c r="G26">
+        <v>135</v>
+      </c>
+      <c r="H26">
+        <v>0.5</v>
+      </c>
+      <c r="I26">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>269</v>
+      </c>
+      <c r="J26">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>42577</v>
+      </c>
+      <c r="B27" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>176</v>
+      </c>
+      <c r="E27">
+        <v>129</v>
+      </c>
+      <c r="F27">
+        <v>83</v>
+      </c>
+      <c r="G27">
+        <v>158</v>
+      </c>
+      <c r="H27">
+        <v>0.35</v>
+      </c>
+      <c r="I27">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>305</v>
+      </c>
+      <c r="J27">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>106.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>42578</v>
+      </c>
+      <c r="B28" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>104</v>
+      </c>
+      <c r="E28">
+        <v>68</v>
+      </c>
+      <c r="F28">
+        <v>80</v>
+      </c>
+      <c r="G28">
+        <v>99</v>
+      </c>
+      <c r="H28">
+        <v>0.35</v>
+      </c>
+      <c r="I28">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>172</v>
+      </c>
+      <c r="J28">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>60.199999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>42579</v>
+      </c>
+      <c r="B29" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>96</v>
+      </c>
+      <c r="E29">
+        <v>63</v>
+      </c>
+      <c r="F29">
+        <v>82</v>
+      </c>
+      <c r="G29">
+        <v>90</v>
+      </c>
+      <c r="H29">
+        <v>0.35</v>
+      </c>
+      <c r="I29">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>159</v>
+      </c>
+      <c r="J29">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>55.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>42580</v>
+      </c>
+      <c r="B30" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Friday</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>66</v>
+      </c>
+      <c r="F30">
+        <v>81</v>
+      </c>
+      <c r="G30">
+        <v>95</v>
+      </c>
+      <c r="H30">
+        <v>0.35</v>
+      </c>
+      <c r="I30">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>166</v>
+      </c>
+      <c r="J30">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>58.099999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>42581</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>88</v>
+      </c>
+      <c r="E31">
+        <v>57</v>
+      </c>
+      <c r="F31">
+        <v>82</v>
+      </c>
+      <c r="G31">
+        <v>81</v>
+      </c>
+      <c r="H31">
+        <v>0.35</v>
+      </c>
+      <c r="I31">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>145</v>
+      </c>
+      <c r="J31">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>50.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>TEXT(WEEKDAY(Table25[[#This Row],[Date]]), "dddd")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>76</v>
+      </c>
+      <c r="E32">
+        <v>47</v>
+      </c>
+      <c r="F32">
+        <v>82</v>
+      </c>
+      <c r="G32">
+        <v>68</v>
+      </c>
+      <c r="H32">
+        <v>0.35</v>
+      </c>
+      <c r="I32">
+        <f>Table25[[#This Row],[Lemon]]+Table25[[#This Row],[Orange]]</f>
+        <v>123</v>
+      </c>
+      <c r="J32">
+        <f>Table25[[#This Row],[Sales]]*Table25[[#This Row],[Price]]</f>
+        <v>43.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>134</v>
+      </c>
+      <c r="B36" s="12">
+        <v>99</v>
+      </c>
+      <c r="C36" s="2">
+        <v>97</v>
+      </c>
+      <c r="D36" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>159</v>
+      </c>
+      <c r="B37" s="12">
+        <v>118</v>
+      </c>
+      <c r="C37" s="2">
+        <v>98</v>
+      </c>
+      <c r="D37" s="2">
+        <v>67</v>
+      </c>
+      <c r="F37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>103</v>
+      </c>
+      <c r="B38" s="12">
+        <v>69</v>
+      </c>
+      <c r="C38" s="2">
+        <v>110</v>
+      </c>
+      <c r="D38" s="2">
+        <v>77</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>143</v>
+      </c>
+      <c r="B39" s="12">
+        <v>101</v>
+      </c>
+      <c r="C39" s="2">
+        <v>131</v>
+      </c>
+      <c r="D39" s="2">
+        <v>92</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="4">
+        <v>16</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1917</v>
+      </c>
+      <c r="I39" s="4">
+        <v>119.8125</v>
+      </c>
+      <c r="J39" s="4">
+        <v>674.5625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>123</v>
+      </c>
+      <c r="B40" s="12">
+        <v>86</v>
+      </c>
+      <c r="C40" s="2">
+        <v>122</v>
+      </c>
+      <c r="D40" s="2">
+        <v>85</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" s="4">
+        <v>16</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1333</v>
+      </c>
+      <c r="I40" s="4">
+        <v>83.3125</v>
+      </c>
+      <c r="J40" s="4">
+        <v>500.62916666666666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>134</v>
+      </c>
+      <c r="B41" s="12">
+        <v>95</v>
+      </c>
+      <c r="C41" s="2">
+        <v>71</v>
+      </c>
+      <c r="D41" s="2">
+        <v>42</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G41" s="4">
+        <v>15</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1697</v>
+      </c>
+      <c r="I41" s="4">
+        <v>113.13333333333334</v>
+      </c>
+      <c r="J41" s="4">
+        <v>716.4095238095241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>140</v>
+      </c>
+      <c r="B42" s="12">
+        <v>98</v>
+      </c>
+      <c r="C42" s="2">
+        <v>83</v>
+      </c>
+      <c r="D42" s="2">
+        <v>50</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="5">
+        <v>15</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1158</v>
+      </c>
+      <c r="I42" s="5">
+        <v>77.2</v>
+      </c>
+      <c r="J42" s="5">
+        <v>492.45714285714246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>162</v>
+      </c>
+      <c r="B43" s="12">
+        <v>120</v>
+      </c>
+      <c r="C43" s="2">
+        <v>112</v>
+      </c>
+      <c r="D43" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>130</v>
+      </c>
+      <c r="B44" s="12">
+        <v>95</v>
+      </c>
+      <c r="C44" s="2">
+        <v>120</v>
+      </c>
+      <c r="D44" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>109</v>
+      </c>
+      <c r="B45" s="12">
+        <v>75</v>
+      </c>
+      <c r="C45" s="2">
+        <v>121</v>
+      </c>
+      <c r="D45" s="2">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>122</v>
+      </c>
+      <c r="B46" s="12">
+        <v>85</v>
+      </c>
+      <c r="C46" s="2">
+        <v>156</v>
+      </c>
+      <c r="D46" s="2">
+        <v>113</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>98</v>
+      </c>
+      <c r="B47" s="12">
+        <v>62</v>
+      </c>
+      <c r="C47" s="2">
+        <v>176</v>
+      </c>
+      <c r="D47" s="2">
+        <v>129</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="4">
+        <v>20975.427150537638</v>
+      </c>
+      <c r="H47" s="4">
+        <v>3</v>
+      </c>
+      <c r="I47" s="4">
+        <v>6991.809050179213</v>
+      </c>
+      <c r="J47" s="4">
+        <v>11.736652787246888</v>
+      </c>
+      <c r="K47" s="4">
+        <v>4.1142236075110634E-6</v>
+      </c>
+      <c r="L47" s="4">
+        <v>2.7635518374327877</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>81</v>
+      </c>
+      <c r="B48" s="12">
+        <v>50</v>
+      </c>
+      <c r="C48" s="2">
+        <v>104</v>
+      </c>
+      <c r="D48" s="2">
+        <v>68</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="4">
+        <v>34552.008333333331</v>
+      </c>
+      <c r="H48" s="4">
+        <v>58</v>
+      </c>
+      <c r="I48" s="4">
+        <v>595.72428160919537</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>115</v>
+      </c>
+      <c r="B49" s="12">
+        <v>76</v>
+      </c>
+      <c r="C49" s="2">
+        <v>96</v>
+      </c>
+      <c r="D49" s="2">
+        <v>63</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>88</v>
+      </c>
+      <c r="B50" s="12">
+        <v>57</v>
+      </c>
+      <c r="C50" s="2">
+        <v>100</v>
+      </c>
+      <c r="D50" s="2">
+        <v>66</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" s="5">
+        <v>55527.43548387097</v>
+      </c>
+      <c r="H50" s="5">
+        <v>61</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>76</v>
+      </c>
+      <c r="B51" s="13">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
